--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/BOM for TrackerLE-4G V2 (Update 31-08-2022)..xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/BOM for TrackerLE-4G V2 (Update 31-08-2022)..xlsx
@@ -1539,7 +1539,7 @@
         <xdr:cNvPr id="1049" name="Ảnh 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C9C229E-5FA4-4F7D-89AE-353624616E41}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9C229E-5FA4-4F7D-89AE-353624616E41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1888,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -2011,7 +2011,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <f ca="1">TODAY()</f>
-        <v>44848</v>
+        <v>45203</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
